--- a/InputData/io-model/BGDP/BAU GDP.xlsx
+++ b/InputData/io-model/BGDP/BAU GDP.xlsx
@@ -588,7 +588,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>233675800000</v>
+        <v>309239200000</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>232457600000</v>
+        <v>313086200000</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>228252500000</v>
+        <v>319129900000</v>
       </c>
     </row>
     <row r="5">
@@ -708,7 +708,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>231373100000</v>
+        <v>325322700000</v>
       </c>
     </row>
     <row r="6">
@@ -748,7 +748,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>237372200000</v>
+        <v>333919500000</v>
       </c>
     </row>
     <row r="7">
@@ -788,7 +788,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>240475300000</v>
+        <v>338752300000</v>
       </c>
     </row>
     <row r="8">

--- a/InputData/io-model/BGDP/BAU GDP.xlsx
+++ b/InputData/io-model/BGDP/BAU GDP.xlsx
@@ -96,6 +96,74 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -588,7 +656,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>309239200000</v>
+        <v>233675800000</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +696,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>313086200000</v>
+        <v>232457600000</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +736,7 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>319129900000</v>
+        <v>228252500000</v>
       </c>
     </row>
     <row r="5">
@@ -708,7 +776,7 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>325322700000</v>
+        <v>231373100000</v>
       </c>
     </row>
     <row r="6">
@@ -748,7 +816,7 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>333919500000</v>
+        <v>237372200000</v>
       </c>
     </row>
     <row r="7">
@@ -788,7 +856,7 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>338752300000</v>
+        <v>240475300000</v>
       </c>
     </row>
     <row r="8">

--- a/InputData/io-model/BGDP/BAU GDP.xlsx
+++ b/InputData/io-model/BGDP/BAU GDP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="720" yWindow="720" windowWidth="14400" windowHeight="6920" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -441,7 +441,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="77.5" customWidth="1" style="7" min="2" max="2"/>
   </cols>
@@ -564,16 +564,16 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="13.1640625" customWidth="1" style="7" min="1" max="1"/>
+    <col width="13.1796875" customWidth="1" style="7" min="1" max="1"/>
     <col width="21" customWidth="1" style="7" min="2" max="2"/>
-    <col width="10.83203125" customWidth="1" style="7" min="3" max="3"/>
+    <col width="10.81640625" customWidth="1" style="7" min="3" max="3"/>
     <col width="13" customWidth="1" style="7" min="4" max="4"/>
-    <col width="13.33203125" customWidth="1" style="7" min="5" max="5"/>
-    <col width="17.1640625" customWidth="1" style="7" min="7" max="7"/>
-    <col width="13.83203125" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
-    <col width="11.83203125" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
+    <col width="13.31640625" customWidth="1" style="7" min="5" max="5"/>
+    <col width="17.1796875" customWidth="1" style="7" min="7" max="7"/>
+    <col width="13.81640625" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
+    <col width="11.81640625" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2562,10 +2562,10 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="17.6640625" customWidth="1" style="7" min="1" max="1"/>
-    <col width="15.1640625" customWidth="1" style="7" min="2" max="2"/>
+    <col width="17.6796875" customWidth="1" style="7" min="1" max="1"/>
+    <col width="15.1796875" customWidth="1" style="7" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/InputData/io-model/BGDP/BAU GDP.xlsx
+++ b/InputData/io-model/BGDP/BAU GDP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38480" yWindow="7060" windowWidth="23420" windowHeight="11320" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="720" yWindow="720" windowWidth="14400" windowHeight="6920" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -90,12 +90,81 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -366,13 +435,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="77.5" customWidth="1" style="7" min="2" max="2"/>
   </cols>
@@ -382,6 +451,9 @@
         <is>
           <t>BGDP BAU Gross Domestic Product</t>
         </is>
+      </c>
+      <c r="C1" s="9" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +564,16 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="13.1640625" customWidth="1" style="7" min="1" max="1"/>
+    <col width="13.1796875" customWidth="1" style="7" min="1" max="1"/>
     <col width="21" customWidth="1" style="7" min="2" max="2"/>
-    <col width="10.83203125" customWidth="1" style="7" min="3" max="3"/>
+    <col width="10.81640625" customWidth="1" style="7" min="3" max="3"/>
     <col width="13" customWidth="1" style="7" min="4" max="4"/>
-    <col width="13.33203125" customWidth="1" style="7" min="5" max="5"/>
-    <col width="17.1640625" customWidth="1" style="7" min="7" max="7"/>
-    <col width="13.83203125" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
-    <col width="11.83203125" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
+    <col width="13.31640625" customWidth="1" style="7" min="5" max="5"/>
+    <col width="17.1796875" customWidth="1" style="7" min="7" max="7"/>
+    <col width="13.81640625" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
+    <col width="11.81640625" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2490,10 +2562,10 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="17.6640625" customWidth="1" style="7" min="1" max="1"/>
-    <col width="15.1640625" customWidth="1" style="7" min="2" max="2"/>
+    <col width="17.6796875" customWidth="1" style="7" min="1" max="1"/>
+    <col width="15.1796875" customWidth="1" style="7" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
